--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3819.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3819.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.498777563166545</v>
+        <v>7.084288597106934</v>
       </c>
       <c r="B1">
-        <v>1.957483042832351</v>
+        <v>5.274005889892578</v>
       </c>
       <c r="C1">
-        <v>3.042383813021184</v>
+        <v>4.436309814453125</v>
       </c>
       <c r="D1">
-        <v>5.684259831479976</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.7433547681965189</v>
+        <v>3.413908004760742</v>
       </c>
     </row>
   </sheetData>
